--- a/Analytics/BIGFIVE/ShirtsXbookings_bf.xlsx
+++ b/Analytics/BIGFIVE/ShirtsXbookings_bf.xlsx
@@ -38,6 +38,9 @@
     <t>I1</t>
   </si>
   <si>
+    <t>F1</t>
+  </si>
+  <si>
     <t>E0</t>
   </si>
   <si>
@@ -45,9 +48,6 @@
   </si>
   <si>
     <t>SP1</t>
-  </si>
-  <si>
-    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -115,7 +115,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1087025.0</v>
+        <v>360975.0</v>
       </c>
     </row>
     <row r="3">
@@ -126,7 +126,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>938400.0</v>
+        <v>275285.0</v>
       </c>
     </row>
     <row r="4">
@@ -137,7 +137,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>778793.5</v>
+        <v>217710.0</v>
       </c>
     </row>
     <row r="5">
@@ -148,7 +148,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>711585.0</v>
+        <v>212865.0</v>
       </c>
     </row>
     <row r="6">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>622640.0</v>
+        <v>204400.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/BIGFIVE/ShirtsXbookings_bf.xlsx
+++ b/Analytics/BIGFIVE/ShirtsXbookings_bf.xlsx
@@ -44,10 +44,10 @@
     <t>E0</t>
   </si>
   <si>
-    <t>D1</t>
+    <t>SP1</t>
   </si>
   <si>
-    <t>SP1</t>
+    <t>D1</t>
   </si>
 </sst>
 </file>
@@ -115,7 +115,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>360975.0</v>
+        <v>484260.0</v>
       </c>
     </row>
     <row r="3">
@@ -126,7 +126,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>275285.0</v>
+        <v>370905.0</v>
       </c>
     </row>
     <row r="4">
@@ -137,7 +137,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>217710.0</v>
+        <v>342795.0</v>
       </c>
     </row>
     <row r="5">
@@ -148,7 +148,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>212865.0</v>
+        <v>312745.0</v>
       </c>
     </row>
     <row r="6">
@@ -159,7 +159,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>204400.0</v>
+        <v>310165.0</v>
       </c>
     </row>
   </sheetData>
